--- a/data/pca/factorExposure/factorExposure_2015-10-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-10-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01133011003813053</v>
+        <v>-0.01464119165154687</v>
       </c>
       <c r="C2">
-        <v>-0.02963821790656714</v>
+        <v>0.03529362654247601</v>
       </c>
       <c r="D2">
-        <v>0.1069153050234442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1295083363617686</v>
+      </c>
+      <c r="E2">
+        <v>-0.05516569250255295</v>
+      </c>
+      <c r="F2">
+        <v>0.02075723004434655</v>
+      </c>
+      <c r="G2">
+        <v>-0.05287480706034198</v>
+      </c>
+      <c r="H2">
+        <v>-0.1080444397553392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01483915841188313</v>
+        <v>-0.01052142998328546</v>
       </c>
       <c r="C3">
-        <v>-0.05425775322376694</v>
+        <v>0.04315315562462462</v>
       </c>
       <c r="D3">
-        <v>0.08798845070580778</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.05558192588321364</v>
+      </c>
+      <c r="E3">
+        <v>-0.04168239530561613</v>
+      </c>
+      <c r="F3">
+        <v>0.06812228515843635</v>
+      </c>
+      <c r="G3">
+        <v>-0.1240151071445023</v>
+      </c>
+      <c r="H3">
+        <v>-0.05666670397254393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04573859465317046</v>
+        <v>-0.05096836601179657</v>
       </c>
       <c r="C4">
-        <v>-0.0577076519651185</v>
+        <v>0.07051302165090187</v>
       </c>
       <c r="D4">
-        <v>0.126049817991267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1453476869909197</v>
+      </c>
+      <c r="E4">
+        <v>-0.05261674149412661</v>
+      </c>
+      <c r="F4">
+        <v>0.03237934481795351</v>
+      </c>
+      <c r="G4">
+        <v>0.04669511081545542</v>
+      </c>
+      <c r="H4">
+        <v>0.0009993192375114322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03565912069152346</v>
+        <v>-0.03827567736313753</v>
       </c>
       <c r="C6">
-        <v>-0.02364262860316915</v>
+        <v>0.02822737978675822</v>
       </c>
       <c r="D6">
-        <v>0.1450508680283798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1412110483722441</v>
+      </c>
+      <c r="E6">
+        <v>-0.01823375927465776</v>
+      </c>
+      <c r="F6">
+        <v>0.02519636255947284</v>
+      </c>
+      <c r="G6">
+        <v>0.01798240567623268</v>
+      </c>
+      <c r="H6">
+        <v>-0.05717197759336722</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01516347569069005</v>
+        <v>-0.01231997074790423</v>
       </c>
       <c r="C7">
-        <v>-0.02732724355014413</v>
+        <v>0.03346977005385733</v>
       </c>
       <c r="D7">
-        <v>0.1057085762766172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09799903406667</v>
+      </c>
+      <c r="E7">
+        <v>-0.01503785784256594</v>
+      </c>
+      <c r="F7">
+        <v>0.02446414139379978</v>
+      </c>
+      <c r="G7">
+        <v>-0.004943903662177963</v>
+      </c>
+      <c r="H7">
+        <v>-0.0857786965086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.003127346059312685</v>
+        <v>-0.004950895144612629</v>
       </c>
       <c r="C8">
-        <v>-0.03787944686333535</v>
+        <v>0.03981611664346106</v>
       </c>
       <c r="D8">
-        <v>0.06913656457352965</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08421376576613165</v>
+      </c>
+      <c r="E8">
+        <v>-0.03479182482215078</v>
+      </c>
+      <c r="F8">
+        <v>0.06876929778040144</v>
+      </c>
+      <c r="G8">
+        <v>-0.03828716618465777</v>
+      </c>
+      <c r="H8">
+        <v>-0.05617302101072984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03823424427587088</v>
+        <v>-0.04068240189254295</v>
       </c>
       <c r="C9">
-        <v>-0.05235707009395103</v>
+        <v>0.06433152551145246</v>
       </c>
       <c r="D9">
-        <v>0.1108154096471119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1216829418359226</v>
+      </c>
+      <c r="E9">
+        <v>-0.03855839373249</v>
+      </c>
+      <c r="F9">
+        <v>0.01481321652615341</v>
+      </c>
+      <c r="G9">
+        <v>0.02866715797474846</v>
+      </c>
+      <c r="H9">
+        <v>-0.006838473578389133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1186526215540501</v>
+        <v>-0.1474646865869065</v>
       </c>
       <c r="C10">
-        <v>0.1809197293027794</v>
+        <v>-0.1883356363552504</v>
       </c>
       <c r="D10">
-        <v>0.002901250401226931</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01089431699612436</v>
+      </c>
+      <c r="E10">
+        <v>-0.04253682839446024</v>
+      </c>
+      <c r="F10">
+        <v>0.04855905930389439</v>
+      </c>
+      <c r="G10">
+        <v>0.001549864189894022</v>
+      </c>
+      <c r="H10">
+        <v>0.03258785474788153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02885060853422742</v>
+        <v>-0.02840644906895826</v>
       </c>
       <c r="C11">
-        <v>-0.04181503917681419</v>
+        <v>0.04541304404464792</v>
       </c>
       <c r="D11">
-        <v>0.05946584573950294</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05837898270929287</v>
+      </c>
+      <c r="E11">
+        <v>0.009365249458410212</v>
+      </c>
+      <c r="F11">
+        <v>-0.006981008931165412</v>
+      </c>
+      <c r="G11">
+        <v>0.003548548800738808</v>
+      </c>
+      <c r="H11">
+        <v>-0.03446589716867474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03499031668795188</v>
+        <v>-0.03304537623702723</v>
       </c>
       <c r="C12">
-        <v>-0.04378887999297462</v>
+        <v>0.04804134399204386</v>
       </c>
       <c r="D12">
-        <v>0.05962144140405434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05640427147951953</v>
+      </c>
+      <c r="E12">
+        <v>0.0002771331057231588</v>
+      </c>
+      <c r="F12">
+        <v>-0.01155564600961227</v>
+      </c>
+      <c r="G12">
+        <v>-0.004916468742098863</v>
+      </c>
+      <c r="H12">
+        <v>-0.037544214083819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0101362555587264</v>
+        <v>-0.01610262433849517</v>
       </c>
       <c r="C13">
-        <v>-0.03373912197369314</v>
+        <v>0.03998383970221097</v>
       </c>
       <c r="D13">
-        <v>0.1394541420537972</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.156397757876004</v>
+      </c>
+      <c r="E13">
+        <v>-0.02864634695641854</v>
+      </c>
+      <c r="F13">
+        <v>0.05392876100214835</v>
+      </c>
+      <c r="G13">
+        <v>-0.01805552460208953</v>
+      </c>
+      <c r="H13">
+        <v>-0.0780542435331856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.001853575271621389</v>
+        <v>-0.006052632283903773</v>
       </c>
       <c r="C14">
-        <v>-0.02150303248282389</v>
+        <v>0.02360091225210198</v>
       </c>
       <c r="D14">
-        <v>0.08684134413591374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09302209019641808</v>
+      </c>
+      <c r="E14">
+        <v>-0.02911358569278939</v>
+      </c>
+      <c r="F14">
+        <v>0.01097207926261527</v>
+      </c>
+      <c r="G14">
+        <v>-0.005076577660750823</v>
+      </c>
+      <c r="H14">
+        <v>-0.1025385363488093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003020597820797975</v>
+        <v>-0.0009672948341190085</v>
       </c>
       <c r="C15">
-        <v>-0.003428737576437275</v>
+        <v>0.01201548667885887</v>
       </c>
       <c r="D15">
-        <v>0.003013705228351441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03525120281439414</v>
+      </c>
+      <c r="E15">
+        <v>-0.009027341459502951</v>
+      </c>
+      <c r="F15">
+        <v>0.001660113958947194</v>
+      </c>
+      <c r="G15">
+        <v>-0.002473144045336023</v>
+      </c>
+      <c r="H15">
+        <v>-0.02259250214195495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0289430346747074</v>
+        <v>-0.02864755478230289</v>
       </c>
       <c r="C16">
-        <v>-0.04411431370007175</v>
+        <v>0.04638434843659688</v>
       </c>
       <c r="D16">
-        <v>0.0635819697113123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06189314346020301</v>
+      </c>
+      <c r="E16">
+        <v>-0.006996042171073512</v>
+      </c>
+      <c r="F16">
+        <v>-0.002435539682261931</v>
+      </c>
+      <c r="G16">
+        <v>0.001261339639474359</v>
+      </c>
+      <c r="H16">
+        <v>-0.05094940876791236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007012257376890388</v>
+        <v>-0.005690938489353601</v>
       </c>
       <c r="C19">
-        <v>-0.03227777169935002</v>
+        <v>0.02703806451858647</v>
       </c>
       <c r="D19">
-        <v>0.1519869856475621</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1167057094728916</v>
+      </c>
+      <c r="E19">
+        <v>-0.06088707714283811</v>
+      </c>
+      <c r="F19">
+        <v>-0.002606867754116205</v>
+      </c>
+      <c r="G19">
+        <v>-0.02731191009984084</v>
+      </c>
+      <c r="H19">
+        <v>-0.05537660759141431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01143155425169843</v>
+        <v>-0.01473211263285678</v>
       </c>
       <c r="C20">
-        <v>-0.03063862627823508</v>
+        <v>0.03456168184763525</v>
       </c>
       <c r="D20">
-        <v>0.08817116520089617</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1030915184123076</v>
+      </c>
+      <c r="E20">
+        <v>-0.04794011358750309</v>
+      </c>
+      <c r="F20">
+        <v>0.007098268377752211</v>
+      </c>
+      <c r="G20">
+        <v>0.005356260715561556</v>
+      </c>
+      <c r="H20">
+        <v>-0.05689233766194517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00189820842625268</v>
+        <v>-0.007616947296999996</v>
       </c>
       <c r="C21">
-        <v>-0.02999946442516522</v>
+        <v>0.0381064974511352</v>
       </c>
       <c r="D21">
-        <v>0.1308797160760599</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.14040863852206</v>
+      </c>
+      <c r="E21">
+        <v>-0.08220822974243054</v>
+      </c>
+      <c r="F21">
+        <v>0.02967477722566939</v>
+      </c>
+      <c r="G21">
+        <v>0.006609666376157494</v>
+      </c>
+      <c r="H21">
+        <v>-0.0829989812302477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.003964307210533978</v>
+        <v>-0.005712505099282632</v>
       </c>
       <c r="C22">
-        <v>-0.04493146845978802</v>
+        <v>0.04377358850316766</v>
       </c>
       <c r="D22">
-        <v>0.107259885454315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1571017494940745</v>
+      </c>
+      <c r="E22">
+        <v>-0.01680528488104927</v>
+      </c>
+      <c r="F22">
+        <v>0.1037683298017458</v>
+      </c>
+      <c r="G22">
+        <v>-0.07147792059069351</v>
+      </c>
+      <c r="H22">
+        <v>-0.03009103373915595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.00385326449844341</v>
+        <v>-0.005840451025429114</v>
       </c>
       <c r="C23">
-        <v>-0.04523170137208021</v>
+        <v>0.04424643943819058</v>
       </c>
       <c r="D23">
-        <v>0.1066959352683108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1563974052724673</v>
+      </c>
+      <c r="E23">
+        <v>-0.0172421079177599</v>
+      </c>
+      <c r="F23">
+        <v>0.103872155737695</v>
+      </c>
+      <c r="G23">
+        <v>-0.07071093359826454</v>
+      </c>
+      <c r="H23">
+        <v>-0.02957933115732818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03123548037888382</v>
+        <v>-0.03003304217939085</v>
       </c>
       <c r="C24">
-        <v>-0.05431784326366948</v>
+        <v>0.05852689613359997</v>
       </c>
       <c r="D24">
-        <v>0.06560193708498759</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06537982798308291</v>
+      </c>
+      <c r="E24">
+        <v>-0.008844714571499218</v>
+      </c>
+      <c r="F24">
+        <v>-0.00506622323195418</v>
+      </c>
+      <c r="G24">
+        <v>0.01171233631950737</v>
+      </c>
+      <c r="H24">
+        <v>-0.05775383868133268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03599402875381378</v>
+        <v>-0.03409344430396181</v>
       </c>
       <c r="C25">
-        <v>-0.05217195568825768</v>
+        <v>0.05556662712706981</v>
       </c>
       <c r="D25">
-        <v>0.06353979303495373</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06230489047301842</v>
+      </c>
+      <c r="E25">
+        <v>-0.009577636221858508</v>
+      </c>
+      <c r="F25">
+        <v>-0.001916178757444224</v>
+      </c>
+      <c r="G25">
+        <v>-0.0003700649626708515</v>
+      </c>
+      <c r="H25">
+        <v>-0.02982641887393546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01467652250678207</v>
+        <v>-0.01731743908267703</v>
       </c>
       <c r="C26">
-        <v>-0.01189492484734294</v>
+        <v>0.01797671210215641</v>
       </c>
       <c r="D26">
-        <v>0.05802638959549724</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06499425499187272</v>
+      </c>
+      <c r="E26">
+        <v>-0.01831721394213745</v>
+      </c>
+      <c r="F26">
+        <v>0.01479154038157908</v>
+      </c>
+      <c r="G26">
+        <v>-0.0001300317172029207</v>
+      </c>
+      <c r="H26">
+        <v>-0.06255748531173309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.172361648215625</v>
+        <v>-0.2099492764954326</v>
       </c>
       <c r="C28">
-        <v>0.2560809314842382</v>
+        <v>-0.2524527720337664</v>
       </c>
       <c r="D28">
-        <v>-0.01159469901073619</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.001766491178646693</v>
+      </c>
+      <c r="E28">
+        <v>-0.07462948813372719</v>
+      </c>
+      <c r="F28">
+        <v>0.02525391797792277</v>
+      </c>
+      <c r="G28">
+        <v>0.0302168921225041</v>
+      </c>
+      <c r="H28">
+        <v>0.04161047705700075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.0003209549003369558</v>
+        <v>-0.003624626665911652</v>
       </c>
       <c r="C29">
-        <v>-0.0217705470190551</v>
+        <v>0.02207798576523138</v>
       </c>
       <c r="D29">
-        <v>0.07383148892266166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0910476811681693</v>
+      </c>
+      <c r="E29">
+        <v>-0.01975278280821604</v>
+      </c>
+      <c r="F29">
+        <v>0.02919760952800755</v>
+      </c>
+      <c r="G29">
+        <v>0.005749505719476289</v>
+      </c>
+      <c r="H29">
+        <v>-0.09986240870639887</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0271666270371998</v>
+        <v>-0.03693251353690959</v>
       </c>
       <c r="C30">
-        <v>-0.04791530862742081</v>
+        <v>0.06165685060624605</v>
       </c>
       <c r="D30">
-        <v>0.1562140163259079</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1730475018872119</v>
+      </c>
+      <c r="E30">
+        <v>-0.02266279985941645</v>
+      </c>
+      <c r="F30">
+        <v>0.02005689489991357</v>
+      </c>
+      <c r="G30">
+        <v>0.02469092722918531</v>
+      </c>
+      <c r="H30">
+        <v>-0.07174338979050181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05784624794984881</v>
+        <v>-0.05208387148541829</v>
       </c>
       <c r="C31">
-        <v>-0.0650201406125856</v>
+        <v>0.07602486016459549</v>
       </c>
       <c r="D31">
-        <v>0.0702819385623439</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05511448666578024</v>
+      </c>
+      <c r="E31">
+        <v>-0.02246972637547122</v>
+      </c>
+      <c r="F31">
+        <v>0.03788979476731844</v>
+      </c>
+      <c r="G31">
+        <v>-0.002791575831786102</v>
+      </c>
+      <c r="H31">
+        <v>-0.01296282324564277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.008442526834988058</v>
+        <v>-0.01589498035052974</v>
       </c>
       <c r="C32">
-        <v>-0.009968131681203578</v>
+        <v>0.01406184286778797</v>
       </c>
       <c r="D32">
-        <v>0.07192333355440235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1143906973743837</v>
+      </c>
+      <c r="E32">
+        <v>-0.07679395520193759</v>
+      </c>
+      <c r="F32">
+        <v>0.03609292100956787</v>
+      </c>
+      <c r="G32">
+        <v>0.01040814594400833</v>
+      </c>
+      <c r="H32">
+        <v>-0.06721798198748875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02104106276164826</v>
+        <v>-0.0240253140438489</v>
       </c>
       <c r="C33">
-        <v>-0.0378899336985595</v>
+        <v>0.0447857915920318</v>
       </c>
       <c r="D33">
-        <v>0.1360957100830183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1341726849062841</v>
+      </c>
+      <c r="E33">
+        <v>-0.0385428540421262</v>
+      </c>
+      <c r="F33">
+        <v>0.0197995873081731</v>
+      </c>
+      <c r="G33">
+        <v>-0.002520706042527261</v>
+      </c>
+      <c r="H33">
+        <v>-0.06607231473343537</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03035565319967162</v>
+        <v>-0.02677771133193044</v>
       </c>
       <c r="C34">
-        <v>-0.06423186244194984</v>
+        <v>0.06279803084304589</v>
       </c>
       <c r="D34">
-        <v>0.06592278355427585</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05521468742785698</v>
+      </c>
+      <c r="E34">
+        <v>0.008257458911255542</v>
+      </c>
+      <c r="F34">
+        <v>-0.01505494299471321</v>
+      </c>
+      <c r="G34">
+        <v>-0.003110159330589461</v>
+      </c>
+      <c r="H34">
+        <v>-0.04832655671331171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.000804400935213754</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009081653037136599</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.007149850863521133</v>
+      </c>
+      <c r="E35">
+        <v>0.0005578499091519125</v>
+      </c>
+      <c r="F35">
+        <v>0.001028214561690651</v>
+      </c>
+      <c r="G35">
+        <v>-0.0006748426961260123</v>
+      </c>
+      <c r="H35">
+        <v>-0.004250870997553168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01686265901274152</v>
+        <v>-0.01881215408975401</v>
       </c>
       <c r="C36">
-        <v>-0.007795694758502472</v>
+        <v>0.01513949519212252</v>
       </c>
       <c r="D36">
-        <v>0.07760995539972651</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07782540531647017</v>
+      </c>
+      <c r="E36">
+        <v>-0.02713529313654417</v>
+      </c>
+      <c r="F36">
+        <v>0.01082469590025376</v>
+      </c>
+      <c r="G36">
+        <v>0.01234446328026541</v>
+      </c>
+      <c r="H36">
+        <v>-0.05152118389730983</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01818629833846648</v>
+        <v>-0.02074922325003856</v>
       </c>
       <c r="C38">
-        <v>-0.01764735232985456</v>
+        <v>0.02008786219394592</v>
       </c>
       <c r="D38">
-        <v>0.06375598476904917</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06663298958960442</v>
+      </c>
+      <c r="E38">
+        <v>-0.03333153982473671</v>
+      </c>
+      <c r="F38">
+        <v>-0.01165617578861697</v>
+      </c>
+      <c r="G38">
+        <v>-0.02662052497396817</v>
+      </c>
+      <c r="H38">
+        <v>-0.04686041002896985</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03259085560597519</v>
+        <v>-0.03276189085227988</v>
       </c>
       <c r="C39">
-        <v>-0.05710696620253411</v>
+        <v>0.06958942546987337</v>
       </c>
       <c r="D39">
-        <v>0.0847909493402437</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1010095571463236</v>
+      </c>
+      <c r="E39">
+        <v>-0.007572010373497875</v>
+      </c>
+      <c r="F39">
+        <v>-0.02575500814875534</v>
+      </c>
+      <c r="G39">
+        <v>0.02179630936424565</v>
+      </c>
+      <c r="H39">
+        <v>-0.09690459234412259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01203349389612143</v>
+        <v>-0.01022791015923729</v>
       </c>
       <c r="C40">
-        <v>-0.04381421208864455</v>
+        <v>0.04124886380288222</v>
       </c>
       <c r="D40">
-        <v>0.08063120983472508</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08704760678729144</v>
+      </c>
+      <c r="E40">
+        <v>-0.04805776893310329</v>
+      </c>
+      <c r="F40">
+        <v>0.09909554408904005</v>
+      </c>
+      <c r="G40">
+        <v>-0.1095707022909145</v>
+      </c>
+      <c r="H40">
+        <v>-0.1515567511750804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02388860650663893</v>
+        <v>-0.02318659799984233</v>
       </c>
       <c r="C41">
-        <v>-0.00343202689963882</v>
+        <v>0.009285651024647826</v>
       </c>
       <c r="D41">
-        <v>0.06527070840798016</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05379613961449558</v>
+      </c>
+      <c r="E41">
+        <v>-0.0478417330758634</v>
+      </c>
+      <c r="F41">
+        <v>0.0119797407631067</v>
+      </c>
+      <c r="G41">
+        <v>-0.02034991725227459</v>
+      </c>
+      <c r="H41">
+        <v>-0.04326829002474834</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02488918287508696</v>
+        <v>-0.0230541486019428</v>
       </c>
       <c r="C43">
-        <v>-0.01417756257755056</v>
+        <v>0.01849816286706937</v>
       </c>
       <c r="D43">
-        <v>0.1074926425785379</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08458283401114824</v>
+      </c>
+      <c r="E43">
+        <v>-0.02487541292655355</v>
+      </c>
+      <c r="F43">
+        <v>0.007030899686821422</v>
+      </c>
+      <c r="G43">
+        <v>-0.02144753795411566</v>
+      </c>
+      <c r="H43">
+        <v>-0.05106020081949571</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.009997713083665297</v>
+        <v>-0.01474788137613545</v>
       </c>
       <c r="C44">
-        <v>-0.04130419598624509</v>
+        <v>0.04113272784332327</v>
       </c>
       <c r="D44">
-        <v>0.08333941346764438</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.105189448769214</v>
+      </c>
+      <c r="E44">
+        <v>-0.05274570572051915</v>
+      </c>
+      <c r="F44">
+        <v>0.0167810741472611</v>
+      </c>
+      <c r="G44">
+        <v>-0.008251428556378648</v>
+      </c>
+      <c r="H44">
+        <v>-0.06485261086832307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01064843048500858</v>
+        <v>-0.01204754017179361</v>
       </c>
       <c r="C46">
-        <v>-0.02501273924017264</v>
+        <v>0.02928586144881293</v>
       </c>
       <c r="D46">
-        <v>0.08257825173731398</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08707862823049481</v>
+      </c>
+      <c r="E46">
+        <v>-0.03053783476652746</v>
+      </c>
+      <c r="F46">
+        <v>0.007179448974084478</v>
+      </c>
+      <c r="G46">
+        <v>0.01155873317493303</v>
+      </c>
+      <c r="H46">
+        <v>-0.09503323889396337</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.08905522755379719</v>
+        <v>-0.08031002523421657</v>
       </c>
       <c r="C47">
-        <v>-0.07487999189123495</v>
+        <v>0.09135372711202873</v>
       </c>
       <c r="D47">
-        <v>0.04596242996170237</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03550979420172058</v>
+      </c>
+      <c r="E47">
+        <v>-0.03501046216637637</v>
+      </c>
+      <c r="F47">
+        <v>0.02857355191326584</v>
+      </c>
+      <c r="G47">
+        <v>-0.01437337106756692</v>
+      </c>
+      <c r="H47">
+        <v>0.04709273471419861</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0100145782880857</v>
+        <v>-0.01415762415362846</v>
       </c>
       <c r="C48">
-        <v>-0.01653507033829307</v>
+        <v>0.02084567410672271</v>
       </c>
       <c r="D48">
-        <v>0.06332912823719754</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07193626335401071</v>
+      </c>
+      <c r="E48">
+        <v>-0.05174260065303528</v>
+      </c>
+      <c r="F48">
+        <v>0.0134493445567877</v>
+      </c>
+      <c r="G48">
+        <v>0.009198577486339322</v>
+      </c>
+      <c r="H48">
+        <v>-0.05910895759658687</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05370483646851529</v>
+        <v>-0.04909581692115252</v>
       </c>
       <c r="C50">
-        <v>-0.05614360780398097</v>
+        <v>0.06728900914113062</v>
       </c>
       <c r="D50">
-        <v>0.06000812825980826</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05374509571628242</v>
+      </c>
+      <c r="E50">
+        <v>-0.02692411820132933</v>
+      </c>
+      <c r="F50">
+        <v>0.03960816470420309</v>
+      </c>
+      <c r="G50">
+        <v>-0.03483439410956322</v>
+      </c>
+      <c r="H50">
+        <v>-0.01915964793894843</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009239789270206909</v>
+        <v>-0.01105115180446763</v>
       </c>
       <c r="C51">
-        <v>-0.01419169015834733</v>
+        <v>0.01954853071152097</v>
       </c>
       <c r="D51">
-        <v>0.07800449248391661</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08985471483231293</v>
+      </c>
+      <c r="E51">
+        <v>-0.0108621549625734</v>
+      </c>
+      <c r="F51">
+        <v>0.001370843952162703</v>
+      </c>
+      <c r="G51">
+        <v>0.0112578685709235</v>
+      </c>
+      <c r="H51">
+        <v>-0.0890496204770149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08683377745249286</v>
+        <v>-0.08694333049031282</v>
       </c>
       <c r="C53">
-        <v>-0.09306267866645535</v>
+        <v>0.1017631394971028</v>
       </c>
       <c r="D53">
-        <v>0.006361322481670309</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01848671940808022</v>
+      </c>
+      <c r="E53">
+        <v>-0.1052834013289292</v>
+      </c>
+      <c r="F53">
+        <v>0.07979187206828768</v>
+      </c>
+      <c r="G53">
+        <v>0.04844057299900997</v>
+      </c>
+      <c r="H53">
+        <v>0.02493542428583325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02434680107510741</v>
+        <v>-0.0250134411551675</v>
       </c>
       <c r="C54">
-        <v>-0.03071267446179866</v>
+        <v>0.03442569211286838</v>
       </c>
       <c r="D54">
-        <v>0.09595339994747031</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08853927420980218</v>
+      </c>
+      <c r="E54">
+        <v>-0.03524805937245834</v>
+      </c>
+      <c r="F54">
+        <v>-0.001967799158630973</v>
+      </c>
+      <c r="G54">
+        <v>-0.02695593455090552</v>
+      </c>
+      <c r="H54">
+        <v>-0.08942292827899251</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08824961489290255</v>
+        <v>-0.08440349673725898</v>
       </c>
       <c r="C55">
-        <v>-0.07089675020044833</v>
+        <v>0.08101771655793596</v>
       </c>
       <c r="D55">
-        <v>-0.0101004946997839</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.004802017609171844</v>
+      </c>
+      <c r="E55">
+        <v>-0.05241714493068165</v>
+      </c>
+      <c r="F55">
+        <v>0.05770187189013106</v>
+      </c>
+      <c r="G55">
+        <v>0.02291538664306384</v>
+      </c>
+      <c r="H55">
+        <v>0.01779533385974258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1365458751916527</v>
+        <v>-0.128507426212343</v>
       </c>
       <c r="C56">
-        <v>-0.1035614030533622</v>
+        <v>0.126667303365026</v>
       </c>
       <c r="D56">
-        <v>-0.003529622844759954</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.00728259616306284</v>
+      </c>
+      <c r="E56">
+        <v>-0.05645115310206689</v>
+      </c>
+      <c r="F56">
+        <v>0.05554180501850608</v>
+      </c>
+      <c r="G56">
+        <v>-0.003370092263733966</v>
+      </c>
+      <c r="H56">
+        <v>0.04923304712883667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.005182912390574127</v>
+        <v>-0.01112723849041803</v>
       </c>
       <c r="C58">
-        <v>-0.009921231963245285</v>
+        <v>0.03232695023457107</v>
       </c>
       <c r="D58">
-        <v>0.27566387164025</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3201891663919179</v>
+      </c>
+      <c r="E58">
+        <v>-0.1319961420960717</v>
+      </c>
+      <c r="F58">
+        <v>0.1164930595086972</v>
+      </c>
+      <c r="G58">
+        <v>-0.07648655954330065</v>
+      </c>
+      <c r="H58">
+        <v>0.04914243551389493</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1528595548033006</v>
+        <v>-0.1814397642946604</v>
       </c>
       <c r="C59">
-        <v>0.1748478328268889</v>
+        <v>-0.1652618352624866</v>
       </c>
       <c r="D59">
-        <v>0.03767042121361595</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0536646443038496</v>
+      </c>
+      <c r="E59">
+        <v>-0.03257041493387183</v>
+      </c>
+      <c r="F59">
+        <v>-0.03205164111567989</v>
+      </c>
+      <c r="G59">
+        <v>-0.003023496261516374</v>
+      </c>
+      <c r="H59">
+        <v>0.02386866643465887</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2387841649723376</v>
+        <v>-0.2258068048507752</v>
       </c>
       <c r="C60">
-        <v>-0.08852368997468622</v>
+        <v>0.1075314450517628</v>
       </c>
       <c r="D60">
-        <v>0.2114193526110244</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1300371853772309</v>
+      </c>
+      <c r="E60">
+        <v>0.3399319927804295</v>
+      </c>
+      <c r="F60">
+        <v>-0.05458351650688925</v>
+      </c>
+      <c r="G60">
+        <v>0.03202800452304055</v>
+      </c>
+      <c r="H60">
+        <v>0.145628533392895</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04043604364384726</v>
+        <v>-0.03906932638982211</v>
       </c>
       <c r="C61">
-        <v>-0.05470621684350754</v>
+        <v>0.06317969165997468</v>
       </c>
       <c r="D61">
-        <v>0.1016780529186157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09432676875403953</v>
+      </c>
+      <c r="E61">
+        <v>-0.000868634766618546</v>
+      </c>
+      <c r="F61">
+        <v>-0.01935628133016079</v>
+      </c>
+      <c r="G61">
+        <v>0.008335855982768092</v>
+      </c>
+      <c r="H61">
+        <v>-0.05790253009914643</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01459931937025876</v>
+        <v>-0.01603959958006851</v>
       </c>
       <c r="C63">
-        <v>-0.0210002726696697</v>
+        <v>0.02916242021215028</v>
       </c>
       <c r="D63">
-        <v>0.07286852619267332</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07383760803473059</v>
+      </c>
+      <c r="E63">
+        <v>-0.01275488471716565</v>
+      </c>
+      <c r="F63">
+        <v>0.008968700776390283</v>
+      </c>
+      <c r="G63">
+        <v>0.01429265809930072</v>
+      </c>
+      <c r="H63">
+        <v>-0.05014522051425416</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05506432752070378</v>
+        <v>-0.05112445651056576</v>
       </c>
       <c r="C64">
-        <v>-0.0740520636494751</v>
+        <v>0.08072456260665084</v>
       </c>
       <c r="D64">
-        <v>0.05391185667951257</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05631270072817647</v>
+      </c>
+      <c r="E64">
+        <v>-0.01940271696891595</v>
+      </c>
+      <c r="F64">
+        <v>-0.00362309093179215</v>
+      </c>
+      <c r="G64">
+        <v>0.06867011465311187</v>
+      </c>
+      <c r="H64">
+        <v>-0.04222734640063409</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03976155982662184</v>
+        <v>-0.04064927128690259</v>
       </c>
       <c r="C65">
-        <v>-0.02177474897864257</v>
+        <v>0.027588736036676</v>
       </c>
       <c r="D65">
-        <v>0.1246392002742191</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1192400100179176</v>
+      </c>
+      <c r="E65">
+        <v>0.0057460720255396</v>
+      </c>
+      <c r="F65">
+        <v>0.01502771397244269</v>
+      </c>
+      <c r="G65">
+        <v>-0.002546764706944426</v>
+      </c>
+      <c r="H65">
+        <v>-0.02043014378616791</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0365694351146108</v>
+        <v>-0.03663868323515249</v>
       </c>
       <c r="C66">
-        <v>-0.06355122441968741</v>
+        <v>0.07885520556036632</v>
       </c>
       <c r="D66">
-        <v>0.1055880686779253</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1272184501498386</v>
+      </c>
+      <c r="E66">
+        <v>-0.01053830583840379</v>
+      </c>
+      <c r="F66">
+        <v>-0.01327169744138566</v>
+      </c>
+      <c r="G66">
+        <v>0.000201385096612731</v>
+      </c>
+      <c r="H66">
+        <v>-0.06476559856174022</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03926591444719211</v>
+        <v>-0.03872145223133781</v>
       </c>
       <c r="C67">
-        <v>-0.02305242652766178</v>
+        <v>0.02643914414526663</v>
       </c>
       <c r="D67">
-        <v>0.03460881948461652</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02826492265534709</v>
+      </c>
+      <c r="E67">
+        <v>-0.01140357351035893</v>
+      </c>
+      <c r="F67">
+        <v>-0.01659584736653795</v>
+      </c>
+      <c r="G67">
+        <v>-0.02171134986768497</v>
+      </c>
+      <c r="H67">
+        <v>-0.04209196999766118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1772093235672365</v>
+        <v>-0.2004854954591789</v>
       </c>
       <c r="C68">
-        <v>0.2175582896739126</v>
+        <v>-0.1956487514735676</v>
       </c>
       <c r="D68">
-        <v>0.0164114685766819</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02525049995874096</v>
+      </c>
+      <c r="E68">
+        <v>-0.03099942211304693</v>
+      </c>
+      <c r="F68">
+        <v>0.03214663870144269</v>
+      </c>
+      <c r="G68">
+        <v>-0.003938887814031471</v>
+      </c>
+      <c r="H68">
+        <v>-0.009239359271829039</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07987963400896865</v>
+        <v>-0.07128408249578071</v>
       </c>
       <c r="C69">
-        <v>-0.08998898408564504</v>
+        <v>0.0992253807162211</v>
       </c>
       <c r="D69">
-        <v>0.06732936401066932</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04887704157934802</v>
+      </c>
+      <c r="E69">
+        <v>-0.02155799911351595</v>
+      </c>
+      <c r="F69">
+        <v>0.008729452193319167</v>
+      </c>
+      <c r="G69">
+        <v>-0.002929763574706061</v>
+      </c>
+      <c r="H69">
+        <v>0.01987021434149983</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1580502225458508</v>
+        <v>-0.1855635244328587</v>
       </c>
       <c r="C71">
-        <v>0.2175968181980489</v>
+        <v>-0.2036740780121939</v>
       </c>
       <c r="D71">
-        <v>0.02653197380238579</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0388829239157184</v>
+      </c>
+      <c r="E71">
+        <v>-0.04958929342069635</v>
+      </c>
+      <c r="F71">
+        <v>0.06195679505761204</v>
+      </c>
+      <c r="G71">
+        <v>-0.02527078606380813</v>
+      </c>
+      <c r="H71">
+        <v>0.005887209080922533</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1027420370454855</v>
+        <v>-0.0981000448295265</v>
       </c>
       <c r="C72">
-        <v>-0.05761708423815604</v>
+        <v>0.07906613910332917</v>
       </c>
       <c r="D72">
-        <v>0.08849109938617715</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09422047228753147</v>
+      </c>
+      <c r="E72">
+        <v>0.04151305259384625</v>
+      </c>
+      <c r="F72">
+        <v>0.02906320690784329</v>
+      </c>
+      <c r="G72">
+        <v>0.03681749485501554</v>
+      </c>
+      <c r="H72">
+        <v>-0.03574665958060706</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2551245520676551</v>
+        <v>-0.236125003312641</v>
       </c>
       <c r="C73">
-        <v>-0.05555994069951622</v>
+        <v>0.09905220939385018</v>
       </c>
       <c r="D73">
-        <v>0.3218461504189842</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1724830304101192</v>
+      </c>
+      <c r="E73">
+        <v>0.6388101376409719</v>
+      </c>
+      <c r="F73">
+        <v>-0.1461092655514378</v>
+      </c>
+      <c r="G73">
+        <v>0.06137294685551767</v>
+      </c>
+      <c r="H73">
+        <v>0.1862302196030727</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1048123919450785</v>
+        <v>-0.09538051100008076</v>
       </c>
       <c r="C74">
-        <v>-0.0767236790259436</v>
+        <v>0.09186028805697785</v>
       </c>
       <c r="D74">
-        <v>-0.003427700645621862</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01158196196328669</v>
+      </c>
+      <c r="E74">
+        <v>-0.04695744460198978</v>
+      </c>
+      <c r="F74">
+        <v>0.07155194157544334</v>
+      </c>
+      <c r="G74">
+        <v>0.04403381557842921</v>
+      </c>
+      <c r="H74">
+        <v>0.05281910665374681</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2458695365047978</v>
+        <v>-0.225251662005576</v>
       </c>
       <c r="C75">
-        <v>-0.136709350405745</v>
+        <v>0.1652473188904461</v>
       </c>
       <c r="D75">
-        <v>-0.07494428636246957</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09536263404671107</v>
+      </c>
+      <c r="E75">
+        <v>-0.1104101277058327</v>
+      </c>
+      <c r="F75">
+        <v>0.02076706970476376</v>
+      </c>
+      <c r="G75">
+        <v>0.01144218683553506</v>
+      </c>
+      <c r="H75">
+        <v>0.1044260119278101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1333942656216885</v>
+        <v>-0.1237303735595114</v>
       </c>
       <c r="C76">
-        <v>-0.09828860397656511</v>
+        <v>0.1128853193335773</v>
       </c>
       <c r="D76">
-        <v>-0.005455090789274781</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.005579168437154081</v>
+      </c>
+      <c r="E76">
+        <v>-0.1096103721125211</v>
+      </c>
+      <c r="F76">
+        <v>0.0410983782786176</v>
+      </c>
+      <c r="G76">
+        <v>0.02754370845441096</v>
+      </c>
+      <c r="H76">
+        <v>0.0005729651414827989</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04667397043461748</v>
+        <v>-0.05438442381774451</v>
       </c>
       <c r="C77">
-        <v>-0.06633621234600694</v>
+        <v>0.07531703793360887</v>
       </c>
       <c r="D77">
-        <v>0.03819625789849521</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1267388982892343</v>
+      </c>
+      <c r="E77">
+        <v>-0.3350002419489076</v>
+      </c>
+      <c r="F77">
+        <v>-0.3255815098268668</v>
+      </c>
+      <c r="G77">
+        <v>-0.4708619268966437</v>
+      </c>
+      <c r="H77">
+        <v>0.6211750706168663</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03399987157094287</v>
+        <v>-0.04273772468336622</v>
       </c>
       <c r="C78">
-        <v>-0.05880637233692852</v>
+        <v>0.06957181495789197</v>
       </c>
       <c r="D78">
-        <v>0.1249716424433536</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1374712583155193</v>
+      </c>
+      <c r="E78">
+        <v>-0.01938213146497507</v>
+      </c>
+      <c r="F78">
+        <v>0.02994356786688744</v>
+      </c>
+      <c r="G78">
+        <v>-0.006237068244225002</v>
+      </c>
+      <c r="H78">
+        <v>-0.01049969899413138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.03464360788503725</v>
+        <v>-0.04783217718913756</v>
       </c>
       <c r="C79">
-        <v>-0.08077432834114136</v>
+        <v>0.09787863221617524</v>
       </c>
       <c r="D79">
-        <v>-0.0940011283998322</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02624379289362249</v>
+      </c>
+      <c r="E79">
+        <v>-0.2230235729769709</v>
+      </c>
+      <c r="F79">
+        <v>0.3119072951331062</v>
+      </c>
+      <c r="G79">
+        <v>0.671748927681632</v>
+      </c>
+      <c r="H79">
+        <v>0.3702656425075272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02371398398990581</v>
+        <v>-0.02492672091795614</v>
       </c>
       <c r="C80">
-        <v>-0.04533924423384066</v>
+        <v>0.04661284046159304</v>
       </c>
       <c r="D80">
-        <v>0.0167460976152053</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02050071802565599</v>
+      </c>
+      <c r="E80">
+        <v>-0.01733739458099425</v>
+      </c>
+      <c r="F80">
+        <v>0.003828011965852479</v>
+      </c>
+      <c r="G80">
+        <v>0.001473238758274264</v>
+      </c>
+      <c r="H80">
+        <v>-0.06629758628240624</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1363204304622522</v>
+        <v>-0.1214849584941223</v>
       </c>
       <c r="C81">
-        <v>-0.1055991532470331</v>
+        <v>0.1217579865415578</v>
       </c>
       <c r="D81">
-        <v>-0.06769134065814505</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07519674044527856</v>
+      </c>
+      <c r="E81">
+        <v>-0.1069664442262172</v>
+      </c>
+      <c r="F81">
+        <v>0.05444985579757664</v>
+      </c>
+      <c r="G81">
+        <v>0.01285375998420221</v>
+      </c>
+      <c r="H81">
+        <v>0.02988002973341139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.304218970939054</v>
+        <v>-0.2576062118429333</v>
       </c>
       <c r="C82">
-        <v>-0.2801092899804124</v>
+        <v>0.2724918334132304</v>
       </c>
       <c r="D82">
-        <v>-0.2382252932896291</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.241137039537442</v>
+      </c>
+      <c r="E82">
+        <v>0.018199981308937</v>
+      </c>
+      <c r="F82">
+        <v>0.01626362100570194</v>
+      </c>
+      <c r="G82">
+        <v>-0.1682444941266533</v>
+      </c>
+      <c r="H82">
+        <v>-0.02726660839327123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02641234055290452</v>
+        <v>-0.02112879985171623</v>
       </c>
       <c r="C83">
-        <v>-0.05280129800069544</v>
+        <v>0.0499817346931483</v>
       </c>
       <c r="D83">
-        <v>0.04412871815413166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05065178923885084</v>
+      </c>
+      <c r="E83">
+        <v>-0.03046951765710434</v>
+      </c>
+      <c r="F83">
+        <v>-0.06726767506641342</v>
+      </c>
+      <c r="G83">
+        <v>-0.05267412384073428</v>
+      </c>
+      <c r="H83">
+        <v>0.05589070363630388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0009128714578221474</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004759208274958608</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01849758615227201</v>
+      </c>
+      <c r="E84">
+        <v>-0.01843146501636078</v>
+      </c>
+      <c r="F84">
+        <v>0.01542737230760482</v>
+      </c>
+      <c r="G84">
+        <v>-0.000616956602246936</v>
+      </c>
+      <c r="H84">
+        <v>-0.02102374986313868</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1685994497894446</v>
+        <v>-0.1539534839538517</v>
       </c>
       <c r="C85">
-        <v>-0.1147550890229304</v>
+        <v>0.1380907436272392</v>
       </c>
       <c r="D85">
-        <v>-0.03485916150758651</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05981718824324313</v>
+      </c>
+      <c r="E85">
+        <v>-0.04035208724966018</v>
+      </c>
+      <c r="F85">
+        <v>0.05834948988331198</v>
+      </c>
+      <c r="G85">
+        <v>0.09278680740644663</v>
+      </c>
+      <c r="H85">
+        <v>0.03416184337507661</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01584322497110949</v>
+        <v>-0.01886454550299605</v>
       </c>
       <c r="C86">
-        <v>-0.03559831811393264</v>
+        <v>0.03157673058136703</v>
       </c>
       <c r="D86">
-        <v>0.1184709509689543</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1164285782014765</v>
+      </c>
+      <c r="E86">
+        <v>-0.03403245421373276</v>
+      </c>
+      <c r="F86">
+        <v>-0.02068105705510588</v>
+      </c>
+      <c r="G86">
+        <v>-0.0669272272461392</v>
+      </c>
+      <c r="H86">
+        <v>0.01118080411664841</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.0230976927446732</v>
+        <v>-0.03504960929301609</v>
       </c>
       <c r="C87">
-        <v>-0.01278841731251976</v>
+        <v>0.02459290366533012</v>
       </c>
       <c r="D87">
-        <v>0.1036114774270772</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.141944926476518</v>
+      </c>
+      <c r="E87">
+        <v>-0.07975197838982133</v>
+      </c>
+      <c r="F87">
+        <v>0.02057817787183415</v>
+      </c>
+      <c r="G87">
+        <v>-0.01193197786131951</v>
+      </c>
+      <c r="H87">
+        <v>-0.06203578770419089</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07195168184930256</v>
+        <v>-0.06590580136529414</v>
       </c>
       <c r="C88">
-        <v>-0.04245414629989504</v>
+        <v>0.05450433992518475</v>
       </c>
       <c r="D88">
-        <v>0.04359031858825713</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02437364543050637</v>
+      </c>
+      <c r="E88">
+        <v>0.003829079899716035</v>
+      </c>
+      <c r="F88">
+        <v>0.02801807599924547</v>
+      </c>
+      <c r="G88">
+        <v>0.008678905089112303</v>
+      </c>
+      <c r="H88">
+        <v>-0.0287054797515656</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2478854206707959</v>
+        <v>-0.2873942069673422</v>
       </c>
       <c r="C89">
-        <v>0.3882855743387361</v>
+        <v>-0.347207409909944</v>
       </c>
       <c r="D89">
-        <v>-0.01802229494543232</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.004545138079049347</v>
+      </c>
+      <c r="E89">
+        <v>-0.06278288514654085</v>
+      </c>
+      <c r="F89">
+        <v>-0.00662924479241995</v>
+      </c>
+      <c r="G89">
+        <v>0.04033962902062445</v>
+      </c>
+      <c r="H89">
+        <v>-0.09007209424587942</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2204663064214875</v>
+        <v>-0.2449931825075319</v>
       </c>
       <c r="C90">
-        <v>0.2886927907244999</v>
+        <v>-0.2468847505752249</v>
       </c>
       <c r="D90">
-        <v>0.004260443763610208</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02516087462132823</v>
+      </c>
+      <c r="E90">
+        <v>-0.04633905604642857</v>
+      </c>
+      <c r="F90">
+        <v>-0.004164196146869774</v>
+      </c>
+      <c r="G90">
+        <v>-0.04762916717383462</v>
+      </c>
+      <c r="H90">
+        <v>-0.045356576815944</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1735830173547029</v>
+        <v>-0.1545194824864173</v>
       </c>
       <c r="C91">
-        <v>-0.1495929079735895</v>
+        <v>0.1574485287142894</v>
       </c>
       <c r="D91">
-        <v>-0.08488257776241914</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08424959245425326</v>
+      </c>
+      <c r="E91">
+        <v>-0.108982093385266</v>
+      </c>
+      <c r="F91">
+        <v>0.0589805765376638</v>
+      </c>
+      <c r="G91">
+        <v>0.05748850417686142</v>
+      </c>
+      <c r="H91">
+        <v>0.09448983269325191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1921262862627523</v>
+        <v>-0.2296025787315195</v>
       </c>
       <c r="C92">
-        <v>0.2721961687956936</v>
+        <v>-0.2674651112639483</v>
       </c>
       <c r="D92">
-        <v>0.0170374629996262</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03208964964970818</v>
+      </c>
+      <c r="E92">
+        <v>-0.07974063207705771</v>
+      </c>
+      <c r="F92">
+        <v>-0.005273796305624408</v>
+      </c>
+      <c r="G92">
+        <v>-0.02162712617782421</v>
+      </c>
+      <c r="H92">
+        <v>-0.009739693075433759</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2452957102138882</v>
+        <v>-0.2653350532609116</v>
       </c>
       <c r="C93">
-        <v>0.2987148687335671</v>
+        <v>-0.2567903837020164</v>
       </c>
       <c r="D93">
-        <v>0.005687581784830861</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.003747022628076396</v>
+      </c>
+      <c r="E93">
+        <v>0.007372154198886399</v>
+      </c>
+      <c r="F93">
+        <v>0.02188771614762769</v>
+      </c>
+      <c r="G93">
+        <v>0.01260768482745355</v>
+      </c>
+      <c r="H93">
+        <v>-0.00295539055938713</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3703678281207774</v>
+        <v>-0.3304011050170919</v>
       </c>
       <c r="C94">
-        <v>-0.230074165296033</v>
+        <v>0.2627012301734787</v>
       </c>
       <c r="D94">
-        <v>-0.4406259080464076</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4397729022704592</v>
+      </c>
+      <c r="E94">
+        <v>-0.05213120717414382</v>
+      </c>
+      <c r="F94">
+        <v>-0.02350643434707582</v>
+      </c>
+      <c r="G94">
+        <v>-0.1674978291005907</v>
+      </c>
+      <c r="H94">
+        <v>-0.3433799847772344</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.06853794193192168</v>
+        <v>-0.06353985349573987</v>
       </c>
       <c r="C95">
-        <v>-0.05764585092500629</v>
+        <v>0.06524348101940695</v>
       </c>
       <c r="D95">
-        <v>0.05732935524303694</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0654413908053459</v>
+      </c>
+      <c r="E95">
+        <v>-0.2057093821032483</v>
+      </c>
+      <c r="F95">
+        <v>-0.8071356863625372</v>
+      </c>
+      <c r="G95">
+        <v>0.4102490062891764</v>
+      </c>
+      <c r="H95">
+        <v>-0.1807627076432836</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1676841982999054</v>
+        <v>-0.1624660430828586</v>
       </c>
       <c r="C98">
-        <v>-0.04463180665845029</v>
+        <v>0.0735568402090651</v>
       </c>
       <c r="D98">
-        <v>0.1776530396952491</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1280932185214953</v>
+      </c>
+      <c r="E98">
+        <v>0.304564649900941</v>
+      </c>
+      <c r="F98">
+        <v>-0.01250400750810077</v>
+      </c>
+      <c r="G98">
+        <v>0.03647142498179509</v>
+      </c>
+      <c r="H98">
+        <v>0.09194431859262035</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0002757521442978063</v>
+        <v>-0.003707416889890418</v>
       </c>
       <c r="C101">
-        <v>-0.0211389019698119</v>
+        <v>0.02132585438441298</v>
       </c>
       <c r="D101">
-        <v>0.07395750636427879</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.09090119178508475</v>
+      </c>
+      <c r="E101">
+        <v>-0.02047538091862285</v>
+      </c>
+      <c r="F101">
+        <v>0.02862228140562196</v>
+      </c>
+      <c r="G101">
+        <v>0.005996924177578714</v>
+      </c>
+      <c r="H101">
+        <v>-0.09929585647852708</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1217292482110745</v>
+        <v>-0.1043652401413248</v>
       </c>
       <c r="C102">
-        <v>-0.1187111675240024</v>
+        <v>0.1201173538934687</v>
       </c>
       <c r="D102">
-        <v>-0.05101763022863843</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06192904044296013</v>
+      </c>
+      <c r="E102">
+        <v>-0.03151966634959941</v>
+      </c>
+      <c r="F102">
+        <v>-0.01142633764191662</v>
+      </c>
+      <c r="G102">
+        <v>-0.01129661483469314</v>
+      </c>
+      <c r="H102">
+        <v>0.03358555722385672</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
